--- a/mini-ep2/execuções.xlsx
+++ b/mini-ep2/execuções.xlsx
@@ -202,15 +202,15 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="212" zoomScaleNormal="212" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.968</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>0.946</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0.954</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0.972</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,7 +840,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0.979</v>
+        <v>0.817</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0.226</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>0.222</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0.231</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,7 +932,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.237</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0.222</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
